--- a/data/EXP 1/exp1_run1_SYBR_PCR.xlsx
+++ b/data/EXP 1/exp1_run1_SYBR_PCR.xlsx
@@ -8,26 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C05D7-20C8-3B41-8EB8-AE721E316BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81A6CD-548B-C84A-8D30-2331F87096F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SYBR" sheetId="1" r:id="rId1"/>
-    <sheet name="Melt Curve" sheetId="3" r:id="rId2"/>
-    <sheet name="Temperature Curve (all data) " sheetId="4" r:id="rId3"/>
-    <sheet name="Melt Curve Summary" sheetId="5" r:id="rId4"/>
-    <sheet name="amplification results" sheetId="6" r:id="rId5"/>
-    <sheet name="quant plate view " sheetId="7" r:id="rId6"/>
-    <sheet name="Run Information" sheetId="2" r:id="rId7"/>
-    <sheet name="quant summary" sheetId="8" r:id="rId8"/>
+    <sheet name="Cq (quant) summary" sheetId="8" r:id="rId1"/>
+    <sheet name="SYBR" sheetId="1" r:id="rId2"/>
+    <sheet name="Melt Curve" sheetId="3" r:id="rId3"/>
+    <sheet name="Temperature Curve (all data) " sheetId="4" r:id="rId4"/>
+    <sheet name="Melt Curve Summary" sheetId="5" r:id="rId5"/>
+    <sheet name="amplification results" sheetId="6" r:id="rId6"/>
+    <sheet name="quant plate view " sheetId="7" r:id="rId7"/>
+    <sheet name="Run Information" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Cq (quant) summary'!$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Cq (quant) summary'!$G$2:$G$97</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Cq (quant) summary'!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Cq (quant) summary'!$H$2:$H$97</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Cq (quant) summary'!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Cq (quant) summary'!$G$2:$G$97</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Cq (quant) summary'!$H$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Cq (quant) summary'!$H$2:$H$97</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="229">
   <si>
     <t>Well</t>
   </si>
@@ -700,6 +722,21 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>HSC70</t>
+  </si>
+  <si>
+    <t>GADD45</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cq (average)</t>
+  </si>
 </sst>
 </file>
 
@@ -709,7 +746,7 @@
     <numFmt numFmtId="164" formatCode="###0.00;\-###0.00"/>
     <numFmt numFmtId="165" formatCode="###0;\-###0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -781,8 +818,20 @@
       <name val="Microsoft Sans Serif"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +854,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9C4E9"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -891,7 +952,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1036,6 +1097,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,6 +1423,2132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9444C1C2-A33A-3444-83DC-0AAD5F298716}">
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="41">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25">
+        <v>36.46</v>
+      </c>
+      <c r="G2" s="43">
+        <f>AVERAGE(F2:F3)</f>
+        <v>36.045000000000002</v>
+      </c>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>38.17</v>
+      </c>
+      <c r="G4" s="43">
+        <f>AVERAGE(F4:F5)</f>
+        <v>37.909999999999997</v>
+      </c>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25">
+        <v>37.65</v>
+      </c>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="41">
+        <v>3</v>
+      </c>
+      <c r="F6" s="25">
+        <v>34.74</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" ref="G6" si="0">AVERAGE(F6:F7)</f>
+        <v>35.06</v>
+      </c>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="41">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="41">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="43">
+        <f t="shared" ref="G8" si="1">AVERAGE(F8:F9)</f>
+        <v>39.43</v>
+      </c>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="41">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25">
+        <v>39.43</v>
+      </c>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="41">
+        <v>5</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="41">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="41">
+        <v>6</v>
+      </c>
+      <c r="F12" s="25">
+        <v>38.54</v>
+      </c>
+      <c r="G12" s="43">
+        <f t="shared" ref="G12" si="2">AVERAGE(F12:F13)</f>
+        <v>38.564999999999998</v>
+      </c>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="41">
+        <v>6</v>
+      </c>
+      <c r="F13" s="25">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="41">
+        <v>7</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="43">
+        <f t="shared" ref="G14:G42" si="3">AVERAGE(F14:F15)</f>
+        <v>39.81</v>
+      </c>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="41">
+        <v>7</v>
+      </c>
+      <c r="F15" s="25">
+        <v>39.81</v>
+      </c>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="41">
+        <v>8</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="41">
+        <v>8</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="41">
+        <v>9</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="41">
+        <v>9</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="41">
+        <v>10</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="41">
+        <v>10</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="41">
+        <v>11</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="41">
+        <v>11</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="41">
+        <v>12</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="43">
+        <f t="shared" si="3"/>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="41">
+        <v>12</v>
+      </c>
+      <c r="F25" s="25">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="41">
+        <v>13</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="41">
+        <v>13</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="41">
+        <v>14</v>
+      </c>
+      <c r="F28" s="25">
+        <v>35.08</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" si="3"/>
+        <v>34.945</v>
+      </c>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="41">
+        <v>14</v>
+      </c>
+      <c r="F29" s="25">
+        <v>34.81</v>
+      </c>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="41">
+        <v>15</v>
+      </c>
+      <c r="F30" s="25">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="G30" s="43">
+        <f t="shared" si="3"/>
+        <v>36.655000000000001</v>
+      </c>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="41">
+        <v>15</v>
+      </c>
+      <c r="F31" s="25">
+        <v>36.86</v>
+      </c>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="41">
+        <v>16</v>
+      </c>
+      <c r="F32" s="25">
+        <v>38.57</v>
+      </c>
+      <c r="G32" s="43">
+        <f t="shared" si="3"/>
+        <v>38.760000000000005</v>
+      </c>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="41">
+        <v>16</v>
+      </c>
+      <c r="F33" s="25">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="41">
+        <v>17</v>
+      </c>
+      <c r="F34" s="25">
+        <v>36.04</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" si="3"/>
+        <v>35.879999999999995</v>
+      </c>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="41">
+        <v>17</v>
+      </c>
+      <c r="F35" s="25">
+        <v>35.72</v>
+      </c>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="41">
+        <v>18</v>
+      </c>
+      <c r="F36" s="25">
+        <v>37.33</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="3"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="41">
+        <v>18</v>
+      </c>
+      <c r="F37" s="25">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="41">
+        <v>19</v>
+      </c>
+      <c r="F38" s="25">
+        <v>38.92</v>
+      </c>
+      <c r="G38" s="43">
+        <f t="shared" si="3"/>
+        <v>37.825000000000003</v>
+      </c>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="41">
+        <v>19</v>
+      </c>
+      <c r="F39" s="25">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="41">
+        <v>20</v>
+      </c>
+      <c r="F40" s="25">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="G40" s="43">
+        <f t="shared" si="3"/>
+        <v>39.564999999999998</v>
+      </c>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="41">
+        <v>20</v>
+      </c>
+      <c r="F41" s="25">
+        <v>39.79</v>
+      </c>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="43">
+        <v>0</v>
+      </c>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="25"/>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="25"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="25"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="25"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="25"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="25"/>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="40">
+        <v>1</v>
+      </c>
+      <c r="F50" s="25">
+        <v>25.14</v>
+      </c>
+      <c r="G50" s="43">
+        <f>AVERAGE(F50:F51)</f>
+        <v>24.73</v>
+      </c>
+      <c r="H50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="40">
+        <v>1</v>
+      </c>
+      <c r="F51" s="25">
+        <v>24.32</v>
+      </c>
+      <c r="H51" s="45"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="40">
+        <v>2</v>
+      </c>
+      <c r="F52" s="25">
+        <v>26.38</v>
+      </c>
+      <c r="G52" s="43">
+        <f t="shared" ref="G52" si="4">AVERAGE(F52:F53)</f>
+        <v>26.655000000000001</v>
+      </c>
+      <c r="H52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="40">
+        <v>2</v>
+      </c>
+      <c r="F53" s="25">
+        <v>26.93</v>
+      </c>
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="40">
+        <v>3</v>
+      </c>
+      <c r="F54" s="25">
+        <v>25.03</v>
+      </c>
+      <c r="G54" s="43">
+        <f t="shared" ref="G54" si="5">AVERAGE(F54:F55)</f>
+        <v>25.6</v>
+      </c>
+      <c r="H54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="40">
+        <v>3</v>
+      </c>
+      <c r="F55" s="25">
+        <v>26.17</v>
+      </c>
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="40">
+        <v>4</v>
+      </c>
+      <c r="F56" s="25">
+        <v>26.95</v>
+      </c>
+      <c r="G56" s="43">
+        <f t="shared" ref="G56" si="6">AVERAGE(F56:F57)</f>
+        <v>27.265000000000001</v>
+      </c>
+      <c r="H56" s="45"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="40">
+        <v>4</v>
+      </c>
+      <c r="F57" s="25">
+        <v>27.58</v>
+      </c>
+      <c r="H57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="40">
+        <v>5</v>
+      </c>
+      <c r="F58" s="25">
+        <v>39.36</v>
+      </c>
+      <c r="G58" s="43">
+        <f t="shared" ref="G58" si="7">AVERAGE(F58:F59)</f>
+        <v>39.36</v>
+      </c>
+      <c r="H58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="40">
+        <v>5</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="40">
+        <v>6</v>
+      </c>
+      <c r="F60" s="25">
+        <v>25.36</v>
+      </c>
+      <c r="G60" s="43">
+        <f t="shared" ref="G60" si="8">AVERAGE(F60:F61)</f>
+        <v>25.83</v>
+      </c>
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="40">
+        <v>6</v>
+      </c>
+      <c r="F61" s="25">
+        <v>26.3</v>
+      </c>
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="40">
+        <v>7</v>
+      </c>
+      <c r="F62" s="25">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="G62" s="43">
+        <f t="shared" ref="G62" si="9">AVERAGE(F62:F63)</f>
+        <v>33.094999999999999</v>
+      </c>
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="40">
+        <v>7</v>
+      </c>
+      <c r="F63" s="25">
+        <v>33.28</v>
+      </c>
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="40">
+        <v>8</v>
+      </c>
+      <c r="F64" s="25">
+        <v>33.42</v>
+      </c>
+      <c r="G64" s="43">
+        <f t="shared" ref="G64" si="10">AVERAGE(F64:F65)</f>
+        <v>33.54</v>
+      </c>
+      <c r="H64" s="45"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="40">
+        <v>8</v>
+      </c>
+      <c r="F65" s="25">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="H65" s="45"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="40">
+        <v>9</v>
+      </c>
+      <c r="F66" s="25">
+        <v>30.81</v>
+      </c>
+      <c r="G66" s="43">
+        <f t="shared" ref="G66" si="11">AVERAGE(F66:F67)</f>
+        <v>31.134999999999998</v>
+      </c>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="40">
+        <v>9</v>
+      </c>
+      <c r="F67" s="25">
+        <v>31.46</v>
+      </c>
+      <c r="H67" s="45"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="40">
+        <v>10</v>
+      </c>
+      <c r="F68" s="25">
+        <v>31.25</v>
+      </c>
+      <c r="G68" s="43">
+        <f t="shared" ref="G68" si="12">AVERAGE(F68:F69)</f>
+        <v>31.375</v>
+      </c>
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="40">
+        <v>10</v>
+      </c>
+      <c r="F69" s="25">
+        <v>31.5</v>
+      </c>
+      <c r="H69" s="45"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="40">
+        <v>11</v>
+      </c>
+      <c r="F70" s="25">
+        <v>33.99</v>
+      </c>
+      <c r="G70" s="43">
+        <f t="shared" ref="G70" si="13">AVERAGE(F70:F71)</f>
+        <v>34.085000000000001</v>
+      </c>
+      <c r="H70" s="45"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="40">
+        <v>11</v>
+      </c>
+      <c r="F71" s="25">
+        <v>34.18</v>
+      </c>
+      <c r="H71" s="45"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="40">
+        <v>12</v>
+      </c>
+      <c r="F72" s="25">
+        <v>32.35</v>
+      </c>
+      <c r="G72" s="43">
+        <f t="shared" ref="G72" si="14">AVERAGE(F72:F73)</f>
+        <v>32.445</v>
+      </c>
+      <c r="H72" s="45"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="40">
+        <v>12</v>
+      </c>
+      <c r="F73" s="25">
+        <v>32.54</v>
+      </c>
+      <c r="H73" s="45"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="40">
+        <v>13</v>
+      </c>
+      <c r="F74" s="25">
+        <v>33.4</v>
+      </c>
+      <c r="G74" s="43">
+        <f t="shared" ref="G74" si="15">AVERAGE(F74:F75)</f>
+        <v>33.634999999999998</v>
+      </c>
+      <c r="H74" s="45"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="40">
+        <v>13</v>
+      </c>
+      <c r="F75" s="25">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="H75" s="45"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="40">
+        <v>14</v>
+      </c>
+      <c r="F76" s="25">
+        <v>25.9</v>
+      </c>
+      <c r="G76" s="43">
+        <f t="shared" ref="G76" si="16">AVERAGE(F76:F77)</f>
+        <v>26.134999999999998</v>
+      </c>
+      <c r="H76" s="45"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="40">
+        <v>14</v>
+      </c>
+      <c r="F77" s="25">
+        <v>26.37</v>
+      </c>
+      <c r="H77" s="45"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="40">
+        <v>15</v>
+      </c>
+      <c r="F78" s="25">
+        <v>32.39</v>
+      </c>
+      <c r="G78" s="43">
+        <f t="shared" ref="G78" si="17">AVERAGE(F78:F79)</f>
+        <v>31.765000000000001</v>
+      </c>
+      <c r="H78" s="45"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="40">
+        <v>15</v>
+      </c>
+      <c r="F79" s="25">
+        <v>31.14</v>
+      </c>
+      <c r="H79" s="45"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="40">
+        <v>16</v>
+      </c>
+      <c r="F80" s="25">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="G80" s="43">
+        <f t="shared" ref="G80" si="18">AVERAGE(F80:F81)</f>
+        <v>33.08</v>
+      </c>
+      <c r="H80" s="45"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="40">
+        <v>16</v>
+      </c>
+      <c r="F81" s="25">
+        <v>32.89</v>
+      </c>
+      <c r="H81" s="45"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="40">
+        <v>17</v>
+      </c>
+      <c r="F82" s="25">
+        <v>29.81</v>
+      </c>
+      <c r="G82" s="43">
+        <f t="shared" ref="G82" si="19">AVERAGE(F82:F83)</f>
+        <v>30.035</v>
+      </c>
+      <c r="H82" s="45"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="40">
+        <v>17</v>
+      </c>
+      <c r="F83" s="25">
+        <v>30.26</v>
+      </c>
+      <c r="H83" s="45"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="40">
+        <v>18</v>
+      </c>
+      <c r="F84" s="25">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="G84" s="43">
+        <f t="shared" ref="G84" si="20">AVERAGE(F84:F85)</f>
+        <v>33.380000000000003</v>
+      </c>
+      <c r="H84" s="45"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="40">
+        <v>18</v>
+      </c>
+      <c r="F85" s="25">
+        <v>33.42</v>
+      </c>
+      <c r="H85" s="45"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="40">
+        <v>19</v>
+      </c>
+      <c r="F86" s="25">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="G86" s="43">
+        <f t="shared" ref="G86" si="21">AVERAGE(F86:F87)</f>
+        <v>33.135000000000005</v>
+      </c>
+      <c r="H86" s="45"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="40">
+        <v>19</v>
+      </c>
+      <c r="F87" s="25">
+        <v>33.25</v>
+      </c>
+      <c r="H87" s="45"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="40">
+        <v>20</v>
+      </c>
+      <c r="F88" s="25">
+        <v>35</v>
+      </c>
+      <c r="G88" s="43">
+        <f t="shared" ref="G88" si="22">AVERAGE(F88:F89)</f>
+        <v>34.96</v>
+      </c>
+      <c r="H88" s="45"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="40">
+        <v>20</v>
+      </c>
+      <c r="F89" s="25">
+        <v>34.92</v>
+      </c>
+      <c r="H89" s="45"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="45"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="H91" s="45"/>
+    </row>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="25">
+        <v>33.83</v>
+      </c>
+      <c r="H92" s="46"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="25"/>
+      <c r="H93" s="45"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="40"/>
+      <c r="F94" s="25"/>
+      <c r="H94" s="45"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="40"/>
+      <c r="F95" s="25"/>
+      <c r="H95" s="45"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="25"/>
+      <c r="H96" s="45"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="40"/>
+      <c r="F97" s="25"/>
+      <c r="H97" s="45"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F98">
+    <sortCondition ref="C1:C98"/>
+  </sortState>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -4489,7 +6689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C7505-193B-D94A-BA86-2566509A8D72}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -7619,11 +9819,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4249978-B449-4846-AD87-230DBB3053C9}">
   <dimension ref="A1:CS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -25800,7 +28000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E52352-7E46-7D4C-A3EF-756B131FE2EB}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -27468,11 +29668,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09771E9-B2CE-DE4A-AABA-E139E374A36A}">
   <dimension ref="A1:CS41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -39496,7 +41696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F02A07-C2BD-4E41-BB1F-423BCDDFE9B4}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -40331,7 +42531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -40449,1513 +42649,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9444C1C2-A33A-3444-83DC-0AAD5F298716}">
-  <dimension ref="A1:F97"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25">
-        <v>39.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25">
-        <v>30.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25">
-        <v>29.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25">
-        <v>36.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25">
-        <v>36.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25">
-        <v>24.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25">
-        <v>31.46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25">
-        <v>33.869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25">
-        <v>30.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25">
-        <v>35.630000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25">
-        <v>35.72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25">
-        <v>26.38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25">
-        <v>25.36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25">
-        <v>33.340000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25">
-        <v>33.270000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25">
-        <v>38.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25">
-        <v>38.54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25">
-        <v>35.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25">
-        <v>37.33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25">
-        <v>26.37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25">
-        <v>33.42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25">
-        <v>37.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25">
-        <v>38.590000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25">
-        <v>34.81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25">
-        <v>37.270000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25">
-        <v>25.03</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25">
-        <v>33.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25">
-        <v>32.39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25">
-        <v>33.020000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25">
-        <v>34.74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25">
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25">
-        <v>38.92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25">
-        <v>26.17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25">
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25">
-        <v>34.18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25">
-        <v>31.14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25">
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25">
-        <v>39.81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25">
-        <v>36.86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="25">
-        <v>36.729999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="25"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25">
-        <v>26.95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25">
-        <v>33.42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="25">
-        <v>32.35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25">
-        <v>32.89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="25"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25">
-        <v>38.57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25">
-        <v>39.340000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25">
-        <v>27.58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25">
-        <v>33.659999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25">
-        <v>32.54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25">
-        <v>33.83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25">
-        <v>34.92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25">
-        <v>39.43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25">
-        <v>38.950000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25">
-        <v>39.79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/EXP 1/exp1_run1_SYBR_PCR.xlsx
+++ b/data/EXP 1/exp1_run1_SYBR_PCR.xlsx
@@ -8,29 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81A6CD-548B-C84A-8D30-2331F87096F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179802AC-1200-794D-B453-37DD605BE714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cq (quant) summary" sheetId="8" r:id="rId1"/>
-    <sheet name="SYBR" sheetId="1" r:id="rId2"/>
-    <sheet name="Melt Curve" sheetId="3" r:id="rId3"/>
-    <sheet name="Temperature Curve (all data) " sheetId="4" r:id="rId4"/>
-    <sheet name="Melt Curve Summary" sheetId="5" r:id="rId5"/>
-    <sheet name="amplification results" sheetId="6" r:id="rId6"/>
-    <sheet name="quant plate view " sheetId="7" r:id="rId7"/>
-    <sheet name="Run Information" sheetId="2" r:id="rId8"/>
+    <sheet name="Delta Cq" sheetId="9" r:id="rId2"/>
+    <sheet name="SYBR" sheetId="1" r:id="rId3"/>
+    <sheet name="Melt Curve" sheetId="3" r:id="rId4"/>
+    <sheet name="Temperature Curve (all data) " sheetId="4" r:id="rId5"/>
+    <sheet name="Melt Curve Summary" sheetId="5" r:id="rId6"/>
+    <sheet name="amplification results" sheetId="6" r:id="rId7"/>
+    <sheet name="quant plate view " sheetId="7" r:id="rId8"/>
+    <sheet name="Run Information" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Cq (quant) summary'!$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Cq (quant) summary'!$G$2:$G$97</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Cq (quant) summary'!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Cq (quant) summary'!$H$2:$H$97</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Cq (quant) summary'!$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Cq (quant) summary'!$G$2:$G$97</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Cq (quant) summary'!$H$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Cq (quant) summary'!$H$2:$H$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Delta Cq'!$D$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="256">
   <si>
     <t>Well</t>
   </si>
@@ -737,14 +731,96 @@
   <si>
     <t>Cq (average)</t>
   </si>
+  <si>
+    <t>average Cq</t>
+  </si>
+  <si>
+    <t>Housekeeping Gene (GABB45)</t>
+  </si>
+  <si>
+    <t>Gene of Interest (HSC70)</t>
+  </si>
+  <si>
+    <t>Delta Cq</t>
+  </si>
+  <si>
+    <t>Delta Delta Cq</t>
+  </si>
+  <si>
+    <t>average delta Cq control</t>
+  </si>
+  <si>
+    <t>HS-10</t>
+  </si>
+  <si>
+    <t>C-2</t>
+  </si>
+  <si>
+    <t>HS-2</t>
+  </si>
+  <si>
+    <t>C-1</t>
+  </si>
+  <si>
+    <t>HS-5</t>
+  </si>
+  <si>
+    <t>C-9</t>
+  </si>
+  <si>
+    <t>C-8</t>
+  </si>
+  <si>
+    <t>HS-4</t>
+  </si>
+  <si>
+    <t>HS-6</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>C-10</t>
+  </si>
+  <si>
+    <t>HS-3</t>
+  </si>
+  <si>
+    <t>HS-8</t>
+  </si>
+  <si>
+    <t>HS-9</t>
+  </si>
+  <si>
+    <t>C-7</t>
+  </si>
+  <si>
+    <t>C-3</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>C-6</t>
+  </si>
+  <si>
+    <t>HS-7</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>HS-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0.00;\-###0.00"/>
     <numFmt numFmtId="165" formatCode="###0;\-###0"/>
+    <numFmt numFmtId="170" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -831,7 +907,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +941,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +1034,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1085,18 +1167,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1110,6 +1180,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9444C1C2-A33A-3444-83DC-0AAD5F298716}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G88" sqref="G50:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1457,7 +1567,7 @@
       <c r="G1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -1472,17 +1582,17 @@
       <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="38">
         <v>1</v>
       </c>
       <c r="F2" s="25">
         <v>36.46</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="40">
         <f>AVERAGE(F2:F3)</f>
         <v>36.045000000000002</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -1497,13 +1607,13 @@
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>1</v>
       </c>
       <c r="F3" s="25">
         <v>35.630000000000003</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
@@ -1518,17 +1628,17 @@
       <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>2</v>
       </c>
       <c r="F4" s="25">
         <v>38.17</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="40">
         <f>AVERAGE(F4:F5)</f>
         <v>37.909999999999997</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
@@ -1543,13 +1653,13 @@
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>2</v>
       </c>
       <c r="F5" s="25">
         <v>37.65</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
@@ -1564,17 +1674,17 @@
       <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>3</v>
       </c>
       <c r="F6" s="25">
         <v>34.74</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="40">
         <f t="shared" ref="G6" si="0">AVERAGE(F6:F7)</f>
         <v>35.06</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
@@ -1589,13 +1699,13 @@
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="38">
         <v>3</v>
       </c>
       <c r="F7" s="25">
         <v>35.380000000000003</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
@@ -1610,15 +1720,15 @@
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>4</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="43">
+      <c r="G8" s="40">
         <f t="shared" ref="G8" si="1">AVERAGE(F8:F9)</f>
         <v>39.43</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
@@ -1633,13 +1743,13 @@
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>4</v>
       </c>
       <c r="F9" s="25">
         <v>39.43</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
@@ -1654,12 +1764,12 @@
       <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>5</v>
       </c>
       <c r="F10" s="25"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
@@ -1674,11 +1784,11 @@
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>5</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
@@ -1693,17 +1803,17 @@
       <c r="D12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>6</v>
       </c>
       <c r="F12" s="25">
         <v>38.54</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="40">
         <f t="shared" ref="G12" si="2">AVERAGE(F12:F13)</f>
         <v>38.564999999999998</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
@@ -1718,13 +1828,13 @@
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="38">
         <v>6</v>
       </c>
       <c r="F13" s="25">
         <v>38.590000000000003</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
@@ -1739,15 +1849,15 @@
       <c r="D14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>7</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="43">
-        <f t="shared" ref="G14:G42" si="3">AVERAGE(F14:F15)</f>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:G40" si="3">AVERAGE(F14:F15)</f>
         <v>39.81</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
@@ -1762,13 +1872,13 @@
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="38">
         <v>7</v>
       </c>
       <c r="F15" s="25">
         <v>39.81</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
@@ -1783,12 +1893,12 @@
       <c r="D16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>8</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
@@ -1803,11 +1913,11 @@
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="38">
         <v>8</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="H17" s="45"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
@@ -1822,12 +1932,12 @@
       <c r="D18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>9</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
@@ -1842,11 +1952,11 @@
       <c r="D19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="38">
         <v>9</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
@@ -1861,12 +1971,12 @@
       <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>10</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
@@ -1881,11 +1991,11 @@
       <c r="D21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="38">
         <v>10</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
@@ -1900,12 +2010,12 @@
       <c r="D22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="38">
         <v>11</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
@@ -1920,11 +2030,11 @@
       <c r="D23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="38">
         <v>11</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="H23" s="45"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
@@ -1939,15 +2049,15 @@
       <c r="D24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="38">
         <v>12</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="43">
+      <c r="G24" s="40">
         <f t="shared" si="3"/>
         <v>39.979999999999997</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
@@ -1962,13 +2072,13 @@
       <c r="D25" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="38">
         <v>12</v>
       </c>
       <c r="F25" s="25">
         <v>39.979999999999997</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
@@ -1983,12 +2093,12 @@
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="38">
         <v>13</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="45"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
@@ -2003,11 +2113,11 @@
       <c r="D27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="38">
         <v>13</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="H27" s="45"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24" t="s">
@@ -2022,17 +2132,17 @@
       <c r="D28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="38">
         <v>14</v>
       </c>
       <c r="F28" s="25">
         <v>35.08</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="40">
         <f t="shared" si="3"/>
         <v>34.945</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
@@ -2047,13 +2157,13 @@
       <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="38">
         <v>14</v>
       </c>
       <c r="F29" s="25">
         <v>34.81</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
@@ -2068,17 +2178,17 @@
       <c r="D30" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="38">
         <v>15</v>
       </c>
       <c r="F30" s="25">
         <v>36.450000000000003</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="40">
         <f t="shared" si="3"/>
         <v>36.655000000000001</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
@@ -2093,13 +2203,13 @@
       <c r="D31" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="38">
         <v>15</v>
       </c>
       <c r="F31" s="25">
         <v>36.86</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
@@ -2114,17 +2224,17 @@
       <c r="D32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="38">
         <v>16</v>
       </c>
       <c r="F32" s="25">
         <v>38.57</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="40">
         <f t="shared" si="3"/>
         <v>38.760000000000005</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
@@ -2139,13 +2249,13 @@
       <c r="D33" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="38">
         <v>16</v>
       </c>
       <c r="F33" s="25">
         <v>38.950000000000003</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
@@ -2160,17 +2270,17 @@
       <c r="D34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="38">
         <v>17</v>
       </c>
       <c r="F34" s="25">
         <v>36.04</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="40">
         <f t="shared" si="3"/>
         <v>35.879999999999995</v>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
@@ -2185,13 +2295,13 @@
       <c r="D35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="38">
         <v>17</v>
       </c>
       <c r="F35" s="25">
         <v>35.72</v>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
@@ -2206,17 +2316,17 @@
       <c r="D36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="38">
         <v>18</v>
       </c>
       <c r="F36" s="25">
         <v>37.33</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G36" s="40">
         <f t="shared" si="3"/>
         <v>37.299999999999997</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
@@ -2231,13 +2341,13 @@
       <c r="D37" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="38">
         <v>18</v>
       </c>
       <c r="F37" s="25">
         <v>37.270000000000003</v>
       </c>
-      <c r="H37" s="45"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="24" t="s">
@@ -2252,17 +2362,17 @@
       <c r="D38" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="38">
         <v>19</v>
       </c>
       <c r="F38" s="25">
         <v>38.92</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="40">
         <f t="shared" si="3"/>
         <v>37.825000000000003</v>
       </c>
-      <c r="H38" s="45"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="24" t="s">
@@ -2277,13 +2387,13 @@
       <c r="D39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="38">
         <v>19</v>
       </c>
       <c r="F39" s="25">
         <v>36.729999999999997</v>
       </c>
-      <c r="H39" s="45"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="24" t="s">
@@ -2298,17 +2408,17 @@
       <c r="D40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="38">
         <v>20</v>
       </c>
       <c r="F40" s="25">
         <v>39.340000000000003</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="40">
         <f t="shared" si="3"/>
         <v>39.564999999999998</v>
       </c>
-      <c r="H40" s="45"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="24" t="s">
@@ -2323,13 +2433,13 @@
       <c r="D41" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="38">
         <v>20</v>
       </c>
       <c r="F41" s="25">
         <v>39.79</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
@@ -2344,14 +2454,14 @@
       <c r="D42" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F42" s="25"/>
-      <c r="G42" s="43">
+      <c r="G42" s="40">
         <v>0</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
@@ -2366,11 +2476,11 @@
       <c r="D43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F43" s="25"/>
-      <c r="H43" s="45"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="24" t="s">
@@ -2385,9 +2495,9 @@
       <c r="D44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="25"/>
-      <c r="H44" s="45"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
@@ -2402,9 +2512,9 @@
       <c r="D45" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="25"/>
-      <c r="H45" s="45"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
@@ -2419,9 +2529,9 @@
       <c r="D46" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="41"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="25"/>
-      <c r="H46" s="45"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
@@ -2436,9 +2546,9 @@
       <c r="D47" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="25"/>
-      <c r="H47" s="45"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
@@ -2453,9 +2563,9 @@
       <c r="D48" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="25"/>
-      <c r="H48" s="45"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
@@ -2470,9 +2580,9 @@
       <c r="D49" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="25"/>
-      <c r="H49" s="45"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
@@ -2487,17 +2597,17 @@
       <c r="D50" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="37">
         <v>1</v>
       </c>
       <c r="F50" s="25">
         <v>25.14</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="40">
         <f>AVERAGE(F50:F51)</f>
         <v>24.73</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
@@ -2512,13 +2622,13 @@
       <c r="D51" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="37">
         <v>1</v>
       </c>
       <c r="F51" s="25">
         <v>24.32</v>
       </c>
-      <c r="H51" s="45"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
@@ -2533,17 +2643,17 @@
       <c r="D52" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="37">
         <v>2</v>
       </c>
       <c r="F52" s="25">
         <v>26.38</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="40">
         <f t="shared" ref="G52" si="4">AVERAGE(F52:F53)</f>
         <v>26.655000000000001</v>
       </c>
-      <c r="H52" s="45"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
@@ -2558,13 +2668,13 @@
       <c r="D53" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="37">
         <v>2</v>
       </c>
       <c r="F53" s="25">
         <v>26.93</v>
       </c>
-      <c r="H53" s="45"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="24" t="s">
@@ -2579,17 +2689,17 @@
       <c r="D54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="37">
         <v>3</v>
       </c>
       <c r="F54" s="25">
         <v>25.03</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="40">
         <f t="shared" ref="G54" si="5">AVERAGE(F54:F55)</f>
         <v>25.6</v>
       </c>
-      <c r="H54" s="45"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
@@ -2604,13 +2714,13 @@
       <c r="D55" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="37">
         <v>3</v>
       </c>
       <c r="F55" s="25">
         <v>26.17</v>
       </c>
-      <c r="H55" s="45"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="24" t="s">
@@ -2625,17 +2735,17 @@
       <c r="D56" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="37">
         <v>4</v>
       </c>
       <c r="F56" s="25">
         <v>26.95</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="40">
         <f t="shared" ref="G56" si="6">AVERAGE(F56:F57)</f>
         <v>27.265000000000001</v>
       </c>
-      <c r="H56" s="45"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
@@ -2650,13 +2760,13 @@
       <c r="D57" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="37">
         <v>4</v>
       </c>
       <c r="F57" s="25">
         <v>27.58</v>
       </c>
-      <c r="H57" s="45"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
@@ -2671,17 +2781,17 @@
       <c r="D58" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="37">
         <v>5</v>
       </c>
       <c r="F58" s="25">
         <v>39.36</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="40">
         <f t="shared" ref="G58" si="7">AVERAGE(F58:F59)</f>
         <v>39.36</v>
       </c>
-      <c r="H58" s="45"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
@@ -2696,11 +2806,11 @@
       <c r="D59" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>5</v>
       </c>
       <c r="F59" s="25"/>
-      <c r="H59" s="45"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
@@ -2715,17 +2825,17 @@
       <c r="D60" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="37">
         <v>6</v>
       </c>
       <c r="F60" s="25">
         <v>25.36</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G60" s="40">
         <f t="shared" ref="G60" si="8">AVERAGE(F60:F61)</f>
         <v>25.83</v>
       </c>
-      <c r="H60" s="45"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
@@ -2740,13 +2850,13 @@
       <c r="D61" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="37">
         <v>6</v>
       </c>
       <c r="F61" s="25">
         <v>26.3</v>
       </c>
-      <c r="H61" s="45"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
@@ -2761,17 +2871,17 @@
       <c r="D62" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="37">
         <v>7</v>
       </c>
       <c r="F62" s="25">
         <v>32.909999999999997</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="40">
         <f t="shared" ref="G62" si="9">AVERAGE(F62:F63)</f>
         <v>33.094999999999999</v>
       </c>
-      <c r="H62" s="45"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
@@ -2786,13 +2896,13 @@
       <c r="D63" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="37">
         <v>7</v>
       </c>
       <c r="F63" s="25">
         <v>33.28</v>
       </c>
-      <c r="H63" s="45"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
@@ -2807,17 +2917,17 @@
       <c r="D64" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="37">
         <v>8</v>
       </c>
       <c r="F64" s="25">
         <v>33.42</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="40">
         <f t="shared" ref="G64" si="10">AVERAGE(F64:F65)</f>
         <v>33.54</v>
       </c>
-      <c r="H64" s="45"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
@@ -2832,13 +2942,13 @@
       <c r="D65" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="37">
         <v>8</v>
       </c>
       <c r="F65" s="25">
         <v>33.659999999999997</v>
       </c>
-      <c r="H65" s="45"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
@@ -2853,17 +2963,17 @@
       <c r="D66" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="37">
         <v>9</v>
       </c>
       <c r="F66" s="25">
         <v>30.81</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="40">
         <f t="shared" ref="G66" si="11">AVERAGE(F66:F67)</f>
         <v>31.134999999999998</v>
       </c>
-      <c r="H66" s="45"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
@@ -2878,13 +2988,13 @@
       <c r="D67" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="37">
         <v>9</v>
       </c>
       <c r="F67" s="25">
         <v>31.46</v>
       </c>
-      <c r="H67" s="45"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="24" t="s">
@@ -2899,17 +3009,17 @@
       <c r="D68" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="37">
         <v>10</v>
       </c>
       <c r="F68" s="25">
         <v>31.25</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="40">
         <f t="shared" ref="G68" si="12">AVERAGE(F68:F69)</f>
         <v>31.375</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
@@ -2924,13 +3034,13 @@
       <c r="D69" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="37">
         <v>10</v>
       </c>
       <c r="F69" s="25">
         <v>31.5</v>
       </c>
-      <c r="H69" s="45"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
@@ -2945,17 +3055,17 @@
       <c r="D70" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="37">
         <v>11</v>
       </c>
       <c r="F70" s="25">
         <v>33.99</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="40">
         <f t="shared" ref="G70" si="13">AVERAGE(F70:F71)</f>
         <v>34.085000000000001</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
@@ -2970,13 +3080,13 @@
       <c r="D71" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="37">
         <v>11</v>
       </c>
       <c r="F71" s="25">
         <v>34.18</v>
       </c>
-      <c r="H71" s="45"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
@@ -2991,17 +3101,17 @@
       <c r="D72" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="37">
         <v>12</v>
       </c>
       <c r="F72" s="25">
         <v>32.35</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="40">
         <f t="shared" ref="G72" si="14">AVERAGE(F72:F73)</f>
         <v>32.445</v>
       </c>
-      <c r="H72" s="45"/>
+      <c r="H72" s="42"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
@@ -3016,13 +3126,13 @@
       <c r="D73" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="37">
         <v>12</v>
       </c>
       <c r="F73" s="25">
         <v>32.54</v>
       </c>
-      <c r="H73" s="45"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="24" t="s">
@@ -3037,17 +3147,17 @@
       <c r="D74" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="37">
         <v>13</v>
       </c>
       <c r="F74" s="25">
         <v>33.4</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="40">
         <f t="shared" ref="G74" si="15">AVERAGE(F74:F75)</f>
         <v>33.634999999999998</v>
       </c>
-      <c r="H74" s="45"/>
+      <c r="H74" s="42"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
@@ -3062,13 +3172,13 @@
       <c r="D75" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="37">
         <v>13</v>
       </c>
       <c r="F75" s="25">
         <v>33.869999999999997</v>
       </c>
-      <c r="H75" s="45"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
@@ -3083,17 +3193,17 @@
       <c r="D76" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="37">
         <v>14</v>
       </c>
       <c r="F76" s="25">
         <v>25.9</v>
       </c>
-      <c r="G76" s="43">
+      <c r="G76" s="40">
         <f t="shared" ref="G76" si="16">AVERAGE(F76:F77)</f>
         <v>26.134999999999998</v>
       </c>
-      <c r="H76" s="45"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
@@ -3108,13 +3218,13 @@
       <c r="D77" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="37">
         <v>14</v>
       </c>
       <c r="F77" s="25">
         <v>26.37</v>
       </c>
-      <c r="H77" s="45"/>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
@@ -3129,17 +3239,17 @@
       <c r="D78" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="37">
         <v>15</v>
       </c>
       <c r="F78" s="25">
         <v>32.39</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G78" s="40">
         <f t="shared" ref="G78" si="17">AVERAGE(F78:F79)</f>
         <v>31.765000000000001</v>
       </c>
-      <c r="H78" s="45"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
@@ -3154,13 +3264,13 @@
       <c r="D79" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="37">
         <v>15</v>
       </c>
       <c r="F79" s="25">
         <v>31.14</v>
       </c>
-      <c r="H79" s="45"/>
+      <c r="H79" s="42"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
@@ -3175,17 +3285,17 @@
       <c r="D80" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="37">
         <v>16</v>
       </c>
       <c r="F80" s="25">
         <v>33.270000000000003</v>
       </c>
-      <c r="G80" s="43">
+      <c r="G80" s="40">
         <f t="shared" ref="G80" si="18">AVERAGE(F80:F81)</f>
         <v>33.08</v>
       </c>
-      <c r="H80" s="45"/>
+      <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
@@ -3200,13 +3310,13 @@
       <c r="D81" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="37">
         <v>16</v>
       </c>
       <c r="F81" s="25">
         <v>32.89</v>
       </c>
-      <c r="H81" s="45"/>
+      <c r="H81" s="42"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="24" t="s">
@@ -3221,17 +3331,17 @@
       <c r="D82" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="37">
         <v>17</v>
       </c>
       <c r="F82" s="25">
         <v>29.81</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="40">
         <f t="shared" ref="G82" si="19">AVERAGE(F82:F83)</f>
         <v>30.035</v>
       </c>
-      <c r="H82" s="45"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
@@ -3246,13 +3356,13 @@
       <c r="D83" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="40">
+      <c r="E83" s="37">
         <v>17</v>
       </c>
       <c r="F83" s="25">
         <v>30.26</v>
       </c>
-      <c r="H83" s="45"/>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
@@ -3267,17 +3377,17 @@
       <c r="D84" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="37">
         <v>18</v>
       </c>
       <c r="F84" s="25">
         <v>33.340000000000003</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="40">
         <f t="shared" ref="G84" si="20">AVERAGE(F84:F85)</f>
         <v>33.380000000000003</v>
       </c>
-      <c r="H84" s="45"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
@@ -3292,13 +3402,13 @@
       <c r="D85" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="37">
         <v>18</v>
       </c>
       <c r="F85" s="25">
         <v>33.42</v>
       </c>
-      <c r="H85" s="45"/>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="24" t="s">
@@ -3313,17 +3423,17 @@
       <c r="D86" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="37">
         <v>19</v>
       </c>
       <c r="F86" s="25">
         <v>33.020000000000003</v>
       </c>
-      <c r="G86" s="43">
+      <c r="G86" s="40">
         <f t="shared" ref="G86" si="21">AVERAGE(F86:F87)</f>
         <v>33.135000000000005</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
@@ -3338,13 +3448,13 @@
       <c r="D87" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="37">
         <v>19</v>
       </c>
       <c r="F87" s="25">
         <v>33.25</v>
       </c>
-      <c r="H87" s="45"/>
+      <c r="H87" s="42"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="24" t="s">
@@ -3359,17 +3469,17 @@
       <c r="D88" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="37">
         <v>20</v>
       </c>
       <c r="F88" s="25">
         <v>35</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G88" s="40">
         <f t="shared" ref="G88" si="22">AVERAGE(F88:F89)</f>
         <v>34.96</v>
       </c>
-      <c r="H88" s="45"/>
+      <c r="H88" s="42"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="24" t="s">
@@ -3384,13 +3494,13 @@
       <c r="D89" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="37">
         <v>20</v>
       </c>
       <c r="F89" s="25">
         <v>34.92</v>
       </c>
-      <c r="H89" s="45"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="24" t="s">
@@ -3405,14 +3515,14 @@
       <c r="D90" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="45"/>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="24" t="s">
@@ -3427,11 +3537,11 @@
       <c r="D91" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F91" s="25"/>
-      <c r="H91" s="45"/>
+      <c r="H91" s="42"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
@@ -3446,13 +3556,13 @@
       <c r="D92" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="E92" s="39" t="s">
         <v>227</v>
       </c>
       <c r="F92" s="25">
         <v>33.83</v>
       </c>
-      <c r="H92" s="46"/>
+      <c r="H92" s="43"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="24" t="s">
@@ -3467,9 +3577,9 @@
       <c r="D93" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="40"/>
+      <c r="E93" s="37"/>
       <c r="F93" s="25"/>
-      <c r="H93" s="45"/>
+      <c r="H93" s="42"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="24" t="s">
@@ -3484,9 +3594,9 @@
       <c r="D94" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E94" s="40"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="25"/>
-      <c r="H94" s="45"/>
+      <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
@@ -3501,9 +3611,9 @@
       <c r="D95" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="40"/>
+      <c r="E95" s="37"/>
       <c r="F95" s="25"/>
-      <c r="H95" s="45"/>
+      <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="24" t="s">
@@ -3518,9 +3628,9 @@
       <c r="D96" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="40"/>
+      <c r="E96" s="37"/>
       <c r="F96" s="25"/>
-      <c r="H96" s="45"/>
+      <c r="H96" s="42"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="24" t="s">
@@ -3535,9 +3645,9 @@
       <c r="D97" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="40"/>
+      <c r="E97" s="37"/>
       <c r="F97" s="25"/>
-      <c r="H97" s="45"/>
+      <c r="H97" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F98">
@@ -3549,6 +3659,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D366DB0-ADA9-7F47-A64B-307E5A959B55}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="51">
+        <v>4</v>
+      </c>
+      <c r="B3" s="51">
+        <v>39.43</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="51">
+        <v>27.265000000000001</v>
+      </c>
+      <c r="E3" s="52">
+        <v>-12.164999999999999</v>
+      </c>
+      <c r="F3" s="47">
+        <f>E3-$G$3</f>
+        <v>-4.2887499999999994</v>
+      </c>
+      <c r="G3" s="47">
+        <f>AVERAGE(E3:E12)</f>
+        <v>-7.8762499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>11</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="51">
+        <v>34.085000000000001</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="51">
+        <v>2</v>
+      </c>
+      <c r="B5" s="51">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="51">
+        <v>26.655000000000001</v>
+      </c>
+      <c r="E5" s="52">
+        <v>-11.254999999999995</v>
+      </c>
+      <c r="F5" s="47">
+        <f t="shared" ref="F4:F22" si="0">E5-$G$3</f>
+        <v>-3.3787499999999957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="51">
+        <v>17</v>
+      </c>
+      <c r="B6" s="51">
+        <v>35.879999999999995</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="51">
+        <v>30.035</v>
+      </c>
+      <c r="E6" s="52">
+        <v>-5.8449999999999953</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="0"/>
+        <v>2.0312500000000044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="51">
+        <v>18</v>
+      </c>
+      <c r="B7" s="51">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="51">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="E7" s="52">
+        <v>-3.9199999999999946</v>
+      </c>
+      <c r="F7" s="47">
+        <f t="shared" si="0"/>
+        <v>3.9562500000000052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="51">
+        <v>10</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="51">
+        <v>31.375</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="51">
+        <v>19</v>
+      </c>
+      <c r="B9" s="51">
+        <v>37.825000000000003</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="51">
+        <v>33.135000000000005</v>
+      </c>
+      <c r="E9" s="52">
+        <v>-4.6899999999999977</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="0"/>
+        <v>3.186250000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="51">
+        <v>16</v>
+      </c>
+      <c r="B10" s="51">
+        <v>38.760000000000005</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="51">
+        <v>33.08</v>
+      </c>
+      <c r="E10" s="52">
+        <v>-5.6800000000000068</v>
+      </c>
+      <c r="F10" s="47">
+        <f t="shared" si="0"/>
+        <v>2.1962499999999929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="51">
+        <v>7</v>
+      </c>
+      <c r="B11" s="53">
+        <v>39.81</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="51">
+        <v>33.094999999999999</v>
+      </c>
+      <c r="E11" s="52">
+        <v>-6.7150000000000034</v>
+      </c>
+      <c r="F11" s="47">
+        <f t="shared" si="0"/>
+        <v>1.1612499999999963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="51">
+        <v>6</v>
+      </c>
+      <c r="B12" s="53">
+        <v>38.57</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="51">
+        <v>25.83</v>
+      </c>
+      <c r="E12" s="52">
+        <v>-12.740000000000002</v>
+      </c>
+      <c r="F12" s="47">
+        <f t="shared" si="0"/>
+        <v>-4.8637500000000022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="48">
+        <v>1</v>
+      </c>
+      <c r="B13" s="50">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="48">
+        <v>24.73</v>
+      </c>
+      <c r="E13" s="49">
+        <v>-11.319999999999997</v>
+      </c>
+      <c r="F13" s="47">
+        <f t="shared" si="0"/>
+        <v>-3.443749999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="48">
+        <v>14</v>
+      </c>
+      <c r="B14" s="48">
+        <v>34.945</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="48">
+        <v>26.134999999999998</v>
+      </c>
+      <c r="E14" s="49">
+        <v>-8.8100000000000023</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="0"/>
+        <v>-0.93375000000000252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="48">
+        <v>3</v>
+      </c>
+      <c r="B15" s="48">
+        <v>35.06</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="48">
+        <v>25.6</v>
+      </c>
+      <c r="E15" s="49">
+        <v>-9.4600000000000009</v>
+      </c>
+      <c r="F15" s="47">
+        <f t="shared" si="0"/>
+        <v>-1.5837500000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="48">
+        <v>12</v>
+      </c>
+      <c r="B16" s="50">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="48">
+        <v>32.445</v>
+      </c>
+      <c r="E16" s="49">
+        <v>-7.5349999999999966</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="0"/>
+        <v>0.34125000000000316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="48">
+        <v>8</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="48">
+        <v>33.54</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="48">
+        <v>5</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="48">
+        <v>39.36</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="48">
+        <v>9</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="48">
+        <v>31.134999999999998</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="48">
+        <v>20</v>
+      </c>
+      <c r="B20" s="48">
+        <v>39.564999999999998</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="48">
+        <v>34.96</v>
+      </c>
+      <c r="E20" s="49">
+        <v>-4.6049999999999969</v>
+      </c>
+      <c r="F20" s="47">
+        <f t="shared" si="0"/>
+        <v>3.2712500000000029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="48">
+        <v>13</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="48">
+        <v>33.634999999999998</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="48">
+        <v>15</v>
+      </c>
+      <c r="B22" s="48">
+        <v>36.655000000000001</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="48">
+        <v>31.765000000000001</v>
+      </c>
+      <c r="E22" s="49">
+        <v>-4.8900000000000006</v>
+      </c>
+      <c r="F22" s="47">
+        <f t="shared" si="0"/>
+        <v>2.9862499999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D41" xr:uid="{4D366DB0-ADA9-7F47-A64B-307E5A959B55}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G22">
+    <sortCondition ref="C3:C22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -6689,7 +7249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C7505-193B-D94A-BA86-2566509A8D72}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -9819,7 +10379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4249978-B449-4846-AD87-230DBB3053C9}">
   <dimension ref="A1:CS62"/>
   <sheetViews>
@@ -28000,7 +28560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E52352-7E46-7D4C-A3EF-756B131FE2EB}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -29668,7 +30228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09771E9-B2CE-DE4A-AABA-E139E374A36A}">
   <dimension ref="A1:CS41"/>
   <sheetViews>
@@ -41696,7 +42256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F02A07-C2BD-4E41-BB1F-423BCDDFE9B4}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -41747,7 +42307,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -41791,7 +42351,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
@@ -41809,7 +42369,7 @@
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="35" t="s">
         <v>216</v>
       </c>
@@ -41841,7 +42401,7 @@
       <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="44" t="s">
         <v>217</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -41885,7 +42445,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -41903,7 +42463,7 @@
       <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>216</v>
       </c>
@@ -41933,7 +42493,7 @@
       <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="44" t="s">
         <v>218</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -41977,7 +42537,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
@@ -41995,7 +42555,7 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="35" t="s">
         <v>216</v>
       </c>
@@ -42033,7 +42593,7 @@
       <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="44" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -42077,7 +42637,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
@@ -42095,7 +42655,7 @@
       <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="35" t="s">
         <v>216</v>
       </c>
@@ -42131,7 +42691,7 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="44" t="s">
         <v>220</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -42175,7 +42735,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="33" t="s">
         <v>4</v>
       </c>
@@ -42193,7 +42753,7 @@
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="35" t="s">
         <v>216</v>
       </c>
@@ -42227,7 +42787,7 @@
       <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="44" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -42271,7 +42831,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="33" t="s">
         <v>4</v>
       </c>
@@ -42289,7 +42849,7 @@
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="35" t="s">
         <v>216</v>
       </c>
@@ -42325,7 +42885,7 @@
       <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="44" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -42369,7 +42929,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="33" t="s">
         <v>4</v>
       </c>
@@ -42387,7 +42947,7 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="35" t="s">
         <v>216</v>
       </c>
@@ -42419,7 +42979,7 @@
       <c r="N22" s="36"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="44" t="s">
         <v>223</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -42463,7 +43023,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="33" t="s">
         <v>4</v>
       </c>
@@ -42481,7 +43041,7 @@
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="35" t="s">
         <v>216</v>
       </c>
@@ -42531,7 +43091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
